--- a/WOBG probability calculations.xlsx
+++ b/WOBG probability calculations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan.v\workspace\personal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Mid</t>
   </si>
@@ -73,6 +78,9 @@
   </si>
   <si>
     <t>Probability to hit for each combination of rolling, dependent on mod delta</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -152,6 +160,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -442,11 +453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94665728"/>
-        <c:axId val="94667520"/>
+        <c:axId val="177328480"/>
+        <c:axId val="177329040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94665728"/>
+        <c:axId val="177328480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,12 +467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94667520"/>
+        <c:crossAx val="177329040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94667520"/>
+        <c:axId val="177329040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -473,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94665728"/>
+        <c:crossAx val="177328480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -907,11 +918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95515392"/>
-        <c:axId val="95516928"/>
+        <c:axId val="178274704"/>
+        <c:axId val="178275264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95515392"/>
+        <c:axId val="178274704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,12 +932,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95516928"/>
+        <c:crossAx val="178275264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95516928"/>
+        <c:axId val="178275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -938,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95515392"/>
+        <c:crossAx val="178274704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1372,11 +1383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95550848"/>
-        <c:axId val="95552640"/>
+        <c:axId val="178445056"/>
+        <c:axId val="178445616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95550848"/>
+        <c:axId val="178445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,12 +1397,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95552640"/>
+        <c:crossAx val="178445616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95552640"/>
+        <c:axId val="178445616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95550848"/>
+        <c:crossAx val="178445056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2604,11 +2615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39861248"/>
-        <c:axId val="39808384"/>
+        <c:axId val="178604912"/>
+        <c:axId val="178605472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39861248"/>
+        <c:axId val="178604912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,12 +2629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39808384"/>
+        <c:crossAx val="178605472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39808384"/>
+        <c:axId val="178605472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2635,7 +2646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39861248"/>
+        <c:crossAx val="178604912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2943,11 +2954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94685056"/>
-        <c:axId val="94686592"/>
+        <c:axId val="177332960"/>
+        <c:axId val="177333520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94685056"/>
+        <c:axId val="177332960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,12 +2968,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94686592"/>
+        <c:crossAx val="177333520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94686592"/>
+        <c:axId val="177333520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2974,7 +2985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94685056"/>
+        <c:crossAx val="177332960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3291,11 +3302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95019776"/>
-        <c:axId val="95021312"/>
+        <c:axId val="177411136"/>
+        <c:axId val="177411696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95019776"/>
+        <c:axId val="177411136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3307,12 +3318,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95021312"/>
+        <c:crossAx val="177411696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95021312"/>
+        <c:axId val="177411696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,7 +3334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95019776"/>
+        <c:crossAx val="177411136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3631,11 +3642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94776704"/>
-        <c:axId val="94782592"/>
+        <c:axId val="177415616"/>
+        <c:axId val="177416176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94776704"/>
+        <c:axId val="177415616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,12 +3656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94782592"/>
+        <c:crossAx val="177416176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94782592"/>
+        <c:axId val="177416176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3662,7 +3673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94776704"/>
+        <c:crossAx val="177415616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4675,11 +4686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94831360"/>
-        <c:axId val="94832896"/>
+        <c:axId val="178009488"/>
+        <c:axId val="178010048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94831360"/>
+        <c:axId val="178009488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,12 +4700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94832896"/>
+        <c:crossAx val="178010048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94832896"/>
+        <c:axId val="178010048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94831360"/>
+        <c:crossAx val="178009488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5139,11 +5150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94859264"/>
-        <c:axId val="94860800"/>
+        <c:axId val="177934000"/>
+        <c:axId val="177934560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94859264"/>
+        <c:axId val="177934000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,12 +5164,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94860800"/>
+        <c:crossAx val="177934560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94860800"/>
+        <c:axId val="177934560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5170,7 +5181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94859264"/>
+        <c:crossAx val="177934000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5604,11 +5615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95429376"/>
-        <c:axId val="95430912"/>
+        <c:axId val="177938480"/>
+        <c:axId val="177939040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95429376"/>
+        <c:axId val="177938480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,12 +5629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95430912"/>
+        <c:crossAx val="177939040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95430912"/>
+        <c:axId val="177939040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5635,7 +5646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95429376"/>
+        <c:crossAx val="177938480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6079,11 +6090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95448448"/>
-        <c:axId val="95458432"/>
+        <c:axId val="178208048"/>
+        <c:axId val="178208608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95448448"/>
+        <c:axId val="178208048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6093,12 +6104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95458432"/>
+        <c:crossAx val="178208608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95458432"/>
+        <c:axId val="178208608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6110,7 +6121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95448448"/>
+        <c:crossAx val="178208048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6544,11 +6555,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95483776"/>
-        <c:axId val="95485312"/>
+        <c:axId val="178270224"/>
+        <c:axId val="178270784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95483776"/>
+        <c:axId val="178270224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,12 +6569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95485312"/>
+        <c:crossAx val="178270784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95485312"/>
+        <c:axId val="178270784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -6575,7 +6586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95483776"/>
+        <c:crossAx val="178270224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7005,7 +7016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7040,7 +7051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7251,8 +7262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU86" sqref="AU86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,6 +7808,47 @@
         <v>2.7099999999999997E-4</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <f>$A23*B23+$A24*B24+$A25*B25+$A26*B26+$A27*B27+$A28*B28+$A29*B29+$A30*B30+$A31*B31+$A32*B32</f>
+        <v>1.0465950000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:J34" si="0">$A23*C23+$A24*C24+$A25*C25+$A26*C26+$A27*C27+$A28*C28+$A29*C29+$A30*C30+$A31*C31+$A32*C32</f>
+        <v>0.35705999999999999</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>7.1444999999999995E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.8320599999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.2856799999999999</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.35705999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>5.0214449999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2.8320599999999998</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1.0465950000000002</v>
+      </c>
+    </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>9</v>
@@ -8292,6 +8344,47 @@
       </c>
       <c r="J69">
         <v>7.8399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <f>$A56*B56+$A57*B57+$A58*B58+$A59*B59+$A60*B60+$A61*B61+$A62*B62+$A63*B63+$A64*B64+$A65*B65+$A66*B66+$A67*B67+$A68*B68+$A69*B69</f>
+        <v>0.147872</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:J71" si="1">$A56*C56+$A57*C57+$A58*C58+$A59*C59+$A60*C60+$A61*C61+$A62*C62+$A63*C63+$A64*C64+$A65*C65+$A66*C66+$A67*C67+$A68*C68+$A69*C69</f>
+        <v>0.292352</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0.51859200000000005</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.84518399999999994</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1.2856799999999999</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>1.8451839999999999</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>2.5185920000000004</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>3.2923520000000002</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>4.1478719999999996</v>
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
